--- a/statistika_upitnika.xlsx
+++ b/statistika_upitnika.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -25,12 +26,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b val="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
-  <fills count="141">
+  <fills count="37">
     <fill>
       <patternFill/>
     </fill>
@@ -39,296 +38,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6BD693"/>
-        <bgColor rgb="FF6BD693"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99FF66"/>
-        <bgColor rgb="FF99FF66"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA6FF58"/>
-        <bgColor rgb="FFA6FF58"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8CFF72"/>
-        <bgColor rgb="FF8CFF72"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5BB6A3"/>
-        <bgColor rgb="FF5BB6A3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFF7F"/>
-        <bgColor rgb="FF7FFF7F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4890B6"/>
-        <bgColor rgb="FF4890B6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7EFC80"/>
-        <bgColor rgb="FF7EFC80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6FF38"/>
-        <bgColor rgb="FFC6FF38"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6FDF8F"/>
-        <bgColor rgb="FF6FDF8F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF62C49C"/>
-        <bgColor rgb="FF62C49C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF94FF6A"/>
-        <bgColor rgb="FF94FF6A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB5FF49"/>
-        <bgColor rgb="FFB5FF49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99FF65"/>
-        <bgColor rgb="FF99FF65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF53A6AB"/>
-        <bgColor rgb="FF53A6AB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7CF982"/>
-        <bgColor rgb="FF7CF982"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF96FF68"/>
-        <bgColor rgb="FF96FF68"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9EFF60"/>
-        <bgColor rgb="FF9EFF60"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF50A1AE"/>
-        <bgColor rgb="FF50A1AE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FFF6F"/>
-        <bgColor rgb="FF8FFF6F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF79F385"/>
-        <bgColor rgb="FF79F385"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF77EF87"/>
-        <bgColor rgb="FF77EF87"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF89FF75"/>
-        <bgColor rgb="FF89FF75"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6AD594"/>
-        <bgColor rgb="FF6AD594"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1224EC"/>
-        <bgColor rgb="FF1224EC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF82FF7C"/>
-        <bgColor rgb="FF82FF7C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF57AEA7"/>
-        <bgColor rgb="FF57AEA7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5CB8A2"/>
-        <bgColor rgb="FF5CB8A2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6CD892"/>
-        <bgColor rgb="FF6CD892"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB1FF4D"/>
-        <bgColor rgb="FFB1FF4D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDFF41"/>
-        <bgColor rgb="FFBDFF41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA8FF56"/>
-        <bgColor rgb="FFA8FF56"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFABFF53"/>
-        <bgColor rgb="FFABFF53"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90FF6E"/>
-        <bgColor rgb="FF90FF6E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7AF484"/>
-        <bgColor rgb="FF7AF484"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006BD693"/>
-        <bgColor rgb="006BD693"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0099FF66"/>
-        <bgColor rgb="0099FF66"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A6FF58"/>
-        <bgColor rgb="00A6FF58"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008CFF72"/>
-        <bgColor rgb="008CFF72"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005BB6A3"/>
-        <bgColor rgb="005BB6A3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007FFF7F"/>
-        <bgColor rgb="007FFF7F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004890B6"/>
-        <bgColor rgb="004890B6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007EFC80"/>
-        <bgColor rgb="007EFC80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C6FF38"/>
-        <bgColor rgb="00C6FF38"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006FDF8F"/>
-        <bgColor rgb="006FDF8F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0062C49C"/>
-        <bgColor rgb="0062C49C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0094FF6A"/>
-        <bgColor rgb="0094FF6A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B5FF49"/>
-        <bgColor rgb="00B5FF49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000000FF"/>
-        <bgColor rgb="000000FF"/>
+        <fgColor rgb="00D6FF00"/>
+        <bgColor rgb="00D6FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFCC00"/>
+        <bgColor rgb="00FFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB100"/>
+        <bgColor rgb="00FFB100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE400"/>
+        <bgColor rgb="00FFE400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B6FF00"/>
+        <bgColor rgb="00B6FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -339,162 +74,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007CF982"/>
-        <bgColor rgb="007CF982"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0096FF68"/>
-        <bgColor rgb="0096FF68"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009EFF60"/>
-        <bgColor rgb="009EFF60"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0050A1AE"/>
-        <bgColor rgb="0050A1AE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008FFF6F"/>
-        <bgColor rgb="008FFF6F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0079F385"/>
-        <bgColor rgb="0079F385"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0077EF87"/>
-        <bgColor rgb="0077EF87"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0089FF75"/>
-        <bgColor rgb="0089FF75"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006AD594"/>
-        <bgColor rgb="006AD594"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001224EC"/>
-        <bgColor rgb="001224EC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0082FF7C"/>
-        <bgColor rgb="0082FF7C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0099FF65"/>
-        <bgColor rgb="0099FF65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0057AEA7"/>
-        <bgColor rgb="0057AEA7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005CB8A2"/>
-        <bgColor rgb="005CB8A2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006CD892"/>
-        <bgColor rgb="006CD892"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B1FF4D"/>
-        <bgColor rgb="00B1FF4D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BDFF41"/>
-        <bgColor rgb="00BDFF41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A8FF56"/>
-        <bgColor rgb="00A8FF56"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ABFF53"/>
-        <bgColor rgb="00ABFF53"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0090FF6E"/>
-        <bgColor rgb="0090FF6E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007AF484"/>
-        <bgColor rgb="007AF484"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D6FF00"/>
-        <bgColor rgb="00D6FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFCC00"/>
-        <bgColor rgb="00FFCC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFB100"/>
-        <bgColor rgb="00FFB100"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFE400"/>
-        <bgColor rgb="00FFE400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B6FF00"/>
-        <bgColor rgb="00B6FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="0090FF00"/>
         <bgColor rgb="0090FF00"/>
       </patternFill>
@@ -537,14 +116,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="00FFCA00"/>
+        <bgColor rgb="00FFCA00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A6FF00"/>
+        <bgColor rgb="00A6FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -615,12 +194,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCA00"/>
-        <bgColor rgb="00FFCA00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00AEFF00"/>
         <bgColor rgb="00AEFF00"/>
       </patternFill>
@@ -671,201 +244,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00F4FF00"/>
         <bgColor rgb="00F4FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D6D600"/>
-        <bgColor rgb="00D6D600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B6B600"/>
-        <bgColor rgb="00B6B600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00909000"/>
-        <bgColor rgb="00909000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FCFC00"/>
-        <bgColor rgb="00FCFC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DFDF00"/>
-        <bgColor rgb="00DFDF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C4C400"/>
-        <bgColor rgb="00C4C400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9F900"/>
-        <bgColor rgb="00F9F900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A1A100"/>
-        <bgColor rgb="00A1A100"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F3F300"/>
-        <bgColor rgb="00F3F300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EFEF00"/>
-        <bgColor rgb="00EFEF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D5D500"/>
-        <bgColor rgb="00D5D500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00242400"/>
-        <bgColor rgb="00242400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AEAE00"/>
-        <bgColor rgb="00AEAE00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B8B800"/>
-        <bgColor rgb="00B8B800"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D8D800"/>
-        <bgColor rgb="00D8D800"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F4F400"/>
-        <bgColor rgb="00F4F400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D6FF28"/>
-        <bgColor rgb="00D6FF28"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B6FF48"/>
-        <bgColor rgb="00B6FF48"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FCFF02"/>
-        <bgColor rgb="00FCFF02"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DFFF1F"/>
-        <bgColor rgb="00DFFF1F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C4FF3A"/>
-        <bgColor rgb="00C4FF3A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FFFF"/>
-        <bgColor rgb="0000FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9FF05"/>
-        <bgColor rgb="00F9FF05"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A1FF5D"/>
-        <bgColor rgb="00A1FF5D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F3FF0B"/>
-        <bgColor rgb="00F3FF0B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EFFF0F"/>
-        <bgColor rgb="00EFFF0F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D5FF29"/>
-        <bgColor rgb="00D5FF29"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0024FFDA"/>
-        <bgColor rgb="0024FFDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AEFF50"/>
-        <bgColor rgb="00AEFF50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B8FF46"/>
-        <bgColor rgb="00B8FF46"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D8FF26"/>
-        <bgColor rgb="00D8FF26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F4FF0A"/>
-        <bgColor rgb="00F4FF0A"/>
       </patternFill>
     </fill>
   </fills>
@@ -878,25 +256,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -936,113 +305,9 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1407,8 +672,8 @@
   </sheetPr>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1424,7 +689,7 @@
           <t>Ukupno bodova</t>
         </is>
       </c>
-      <c r="C1" s="1" t="n"/>
+      <c r="C1" s="1" t="inlineStr"/>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Pitanje</t>
@@ -1442,10 +707,9 @@
           <t>Klinika za stomatologiju Vojvodine</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>284</v>
       </c>
-      <c r="C2" s="73" t="n"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>Da li korisnici računara koriste kompleksne lozinke za pristup svojim nalozima?</t>
@@ -1461,10 +725,9 @@
           <t>Zdravstveni centar Loznica</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="3" t="n">
         <v>196</v>
       </c>
-      <c r="C3" s="74" t="n"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>Da li svi korisnici računara moraju redovno da menjaju svoje lozinke, najmanje jednom u šest meseci?</t>
@@ -1480,10 +743,9 @@
           <t>Dom zdravlja Šid</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="4" t="n">
         <v>171</v>
       </c>
-      <c r="C4" s="75" t="n"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>Da li se koristi Multi faktor autentifikacija tamo gde je to moguće?</t>
@@ -1499,10 +761,9 @@
           <t>Dom zdravlja Smederevo</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="5" t="n">
         <v>220</v>
       </c>
-      <c r="C5" s="76" t="n"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>Da li postoji centralno upravljanje korisničkim nalozima? (npr Active Directory)</t>
@@ -1518,10 +779,9 @@
           <t>Dom zdravlja "Bela Crkva"</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="6" t="n">
         <v>315</v>
       </c>
-      <c r="C6" s="77" t="n"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>Da li postoji mehanizam za zaključavanje korisničkog naloga nakon nekoliko neuspešnih pokušaja prijave na sistem?</t>
@@ -1537,10 +797,9 @@
           <t xml:space="preserve">Dom Zdravlja " Dr Marton Šandor" </t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="7" t="n">
         <v>245</v>
       </c>
-      <c r="C7" s="51" t="n"/>
       <c r="D7" t="inlineStr">
         <is>
           <t>Da li čuvate zapise o nesupešnim pokušajima prijave na sistem?</t>
@@ -1556,10 +815,9 @@
           <t>Dom zdravlja "Dr Sava Stanojević" Trstenik</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="8" t="n">
         <v>351</v>
       </c>
-      <c r="C8" s="78" t="n"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>Da li postoji ograničenje za sve korisničke naloge za pristup isključivo potrebnim resursima računarske mreže?</t>
@@ -1575,10 +833,9 @@
           <t>Zdravstveni Centar Kladovo</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="9" t="n">
         <v>247</v>
       </c>
-      <c r="C9" s="79" t="n"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>Da li korisnik može da instalira ili ukloni aplikacije na računaru koji koristi</t>
@@ -1594,10 +851,9 @@
           <t>Dom zdravlja Apatin</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="10" t="n">
         <v>108</v>
       </c>
-      <c r="C10" s="80" t="n"/>
       <c r="D10" t="inlineStr">
         <is>
           <t>Da li se korisnički nalozi zaključavaju automatski nakon određenog vremena bez aktivnosti?</t>
@@ -1613,10 +869,9 @@
           <t>Dom zdravlja Mionica</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="11" t="n">
         <v>275</v>
       </c>
-      <c r="C11" s="81" t="n"/>
       <c r="D11" t="inlineStr">
         <is>
           <t>Da li korisnici mogu da koriste eksterne memorije (diskovi, fleševi) na računaru?</t>
@@ -1632,10 +887,9 @@
           <t>Dom zdravlja Srpska Crnja</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="12" t="n">
         <v>301</v>
       </c>
-      <c r="C12" s="82" t="n"/>
       <c r="D12" t="inlineStr">
         <is>
           <t>Da li je dozvoljena upotreba sopstvenog uređaja (laptop, tablet ...) za pristup podacima ustanove?</t>
@@ -1651,10 +905,9 @@
           <t>Dom zdravlja Golubac</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="13" t="n">
         <v>205</v>
       </c>
-      <c r="C13" s="83" t="n"/>
       <c r="D13" t="inlineStr">
         <is>
           <t>Da li ustanova ima procedure za uključivanje novih zaposlenih u informacioni sistem i gašenje naloga zaposlenih koji više ne rade u ustanovi (onboard / offbaord)?</t>
@@ -1670,10 +923,9 @@
           <t>Dom zdravlja Mali Zvornik</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="14" t="n">
         <v>141</v>
       </c>
-      <c r="C14" s="84" t="n"/>
       <c r="D14" t="inlineStr">
         <is>
           <t>Da li svi računari, serveri i mobilni uređaji ustanove imaju instaliran antivirus program? (Windows Defender instaliran uz operativni sistem se ne računa)</t>
@@ -1689,10 +941,9 @@
           <t>Dom zdravlja "Dr Janoš Hadži" Bačka Topola</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>490</v>
-      </c>
-      <c r="C15" s="85" t="n"/>
+      <c r="B15" s="15" t="n">
+        <v>195</v>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>Da li su zaposleni upoznati sa procedurom u slučaju kada ih antivirus upozori na postojanje problema?</t>
@@ -1708,10 +959,9 @@
           <t>Dom zdravlja Valjevo</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="86" t="n"/>
+      <c r="B16" s="16" t="n">
+        <v>330</v>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>Da li znate datum kada vam ističe licenca za antivirus?</t>
@@ -1727,10 +977,9 @@
           <t>Dom zdravlja Subotica</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="17" t="n">
         <v>250</v>
       </c>
-      <c r="C17" s="87" t="n"/>
       <c r="D17" t="inlineStr">
         <is>
           <t>Da li postoji jedinstvena centralna konzola za praćenje rada svih antivirus programa instaliranih na računarima?</t>
@@ -1746,10 +995,9 @@
           <t>Dom zdravlja Odžaci</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="18" t="n">
         <v>200</v>
       </c>
-      <c r="C18" s="88" t="n"/>
       <c r="D18" t="inlineStr">
         <is>
           <t>Da li ustanova ima zaštitu za skeniranje elektronske pošte i internet saobraćaja omogućenu za sve računare?</t>
@@ -1765,10 +1013,9 @@
           <t>Zdravstveni centar Užice</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="19" t="n">
         <v>186</v>
       </c>
-      <c r="C19" s="89" t="n"/>
       <c r="D19" t="inlineStr">
         <is>
           <t>Da li postoji osoba zadužena da prati nedeljno/mesečno/godišnje izveštaje antivirusa o incidentima?</t>
@@ -1784,10 +1031,9 @@
           <t>KBC "Bežanijska kosa"</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="20" t="n">
         <v>335</v>
       </c>
-      <c r="C20" s="90" t="n"/>
       <c r="D20" t="inlineStr">
         <is>
           <t>Da li su svi serverski i klijentski računari, kao i ostali uređaji za pristup podacima redovno ažurirani?</t>
@@ -1803,10 +1049,9 @@
           <t>Dom zdravlja Petrovac na Mlavi</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="21" t="n">
         <v>215</v>
       </c>
-      <c r="C21" s="91" t="n"/>
       <c r="D21" t="inlineStr">
         <is>
           <t>Da li znate koliko se često operativni sistemi uređaja ažuriraju</t>
@@ -1822,10 +1067,9 @@
           <t>Dom zdravlja Vršac</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="4" t="n">
         <v>171</v>
       </c>
-      <c r="C22" s="75" t="n"/>
       <c r="D22" t="inlineStr">
         <is>
           <t>Da li postoji osoba ili organizacija odgovorna da obezbedi da ažuriranja budu instalirana na svim uređajima?</t>
@@ -1841,10 +1085,9 @@
           <t>DZ Rakovica</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="22" t="n">
         <v>256</v>
       </c>
-      <c r="C23" s="92" t="n"/>
       <c r="D23" t="inlineStr">
         <is>
           <t>Da li postoje uređaji u informacionom sistemu koji ne mogu da se ažuriraju?</t>
@@ -1860,10 +1103,9 @@
           <t>Specijalna bolnica za psihijatrijske bolesti "Kovin" u Kovinu</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="23" t="n">
         <v>260</v>
       </c>
-      <c r="C24" s="93" t="n"/>
       <c r="D24" t="inlineStr">
         <is>
           <t>Da li postoji procedura za upotrebu uređaja koji ne mogu da se ažuriraju?</t>
@@ -1879,10 +1121,9 @@
           <t>Zavod za zdravstvenu zaštitu radnika Niš</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="24" t="n">
         <v>225</v>
       </c>
-      <c r="C25" s="94" t="n"/>
       <c r="D25" t="inlineStr">
         <is>
           <t>Da li se za sve podake bitne za rad, kao i servere na kojima se oni nalaze redovno kreiraju rezervne kopije?</t>
@@ -1898,10 +1139,9 @@
           <t>Dom zdravlja "Dr Jovan Ristić" Babušnica</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="25" t="n">
         <v>285</v>
       </c>
-      <c r="C26" s="95" t="n"/>
       <c r="D26" t="inlineStr">
         <is>
           <t>Da li ste upoznati koliko kopija (broj dana) bekapa servera i podataka se čuva u bekap sistemu ustanove?</t>
@@ -1917,10 +1157,9 @@
           <t>SB Rusanda</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="26" t="n">
         <v>455</v>
       </c>
-      <c r="C27" s="96" t="n"/>
       <c r="D27" t="inlineStr">
         <is>
           <t>Da li ustanova čuva rezervne kopije na sigurnoj udaljenoj lokaciji van objekta ustanove (udaljeni bekap)?</t>
@@ -1936,10 +1175,9 @@
           <t>Dom zdravlja Ub</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="27" t="n">
         <v>239</v>
       </c>
-      <c r="C28" s="97" t="n"/>
       <c r="D28" t="inlineStr">
         <is>
           <t xml:space="preserve">Da li ustanova ima pravilo koliko dugo se arhiviraju kopije bitnih podataka? </t>
@@ -1955,10 +1193,9 @@
           <t>Dom zdravlja Kučevo</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="15" t="n">
         <v>195</v>
       </c>
-      <c r="C29" s="98" t="n"/>
       <c r="D29" t="inlineStr">
         <is>
           <t>Da li se periodično testira ispravnost rezervnih kopija podataka?</t>
@@ -1974,10 +1211,9 @@
           <t>Opšta bolnica "Studenica"</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="28" t="n">
         <v>322</v>
       </c>
-      <c r="C30" s="99" t="n"/>
       <c r="D30" t="inlineStr">
         <is>
           <t xml:space="preserve"> Da li postoji osoba ili organizacija zadužena za praćenje dešavanja u računarskoj mreži i ispravljanju uočenih nepravilnosti?</t>
@@ -1993,10 +1229,9 @@
           <t>ZUDZ Bački Petrovac</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="29" t="n">
         <v>313</v>
       </c>
-      <c r="C31" s="100" t="n"/>
       <c r="D31" t="inlineStr">
         <is>
           <t>Da li vaša ustanova periodično organizuje obuku za zaposlene kako bi unapredili svoje znanje o najčešće eksploatisanim greškama korisnika?</t>
@@ -2012,10 +1247,9 @@
           <t>Dom zdravlja Bor</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="30" t="n">
         <v>282</v>
       </c>
-      <c r="C32" s="101" t="n"/>
       <c r="D32" t="inlineStr">
         <is>
           <t>Da li su teme obuhvaćene obukom o bezbednosti prilagođene radnim mestima zaposlenih?</t>
@@ -2031,10 +1265,9 @@
           <t>Dom Zdravlja Prokuplje</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" s="31" t="n">
         <v>149</v>
       </c>
-      <c r="C33" s="102" t="n"/>
       <c r="D33" t="inlineStr">
         <is>
           <t>Da li je obuka za bezbednost obavezna za sve zaposlene?</t>
@@ -2050,10 +1283,9 @@
           <t>Opšta bolnica Pančevo</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="7" t="n">
         <v>245</v>
       </c>
-      <c r="C34" s="51" t="n"/>
       <c r="D34" t="inlineStr">
         <is>
           <t>Da li vaša ustanova ima uputstva zaposlenima za bezbedan način upotrebe e-pošte?</t>
@@ -2069,10 +1301,9 @@
           <t>Opšta bolnica "Dr Radivoj Simonović" Sombor</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="32" t="n">
         <v>125</v>
       </c>
-      <c r="C35" s="103" t="n"/>
       <c r="D35" t="inlineStr">
         <is>
           <t>Da li vaša ustanova ima uputstva za bezbedno korišćenja interneta?</t>
@@ -2088,10 +1319,9 @@
           <t>Opšta bolnica Vršac</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="33" t="n">
         <v>166</v>
       </c>
-      <c r="C36" s="104" t="n"/>
       <c r="D36" t="inlineStr">
         <is>
           <t>Da li znate gde se nalaze podaci u vašoj ustanovi?</t>
@@ -2107,10 +1337,9 @@
           <t>Opšta bolnica Petrovac na Mlavi</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="34" t="n">
         <v>161</v>
       </c>
-      <c r="C37" s="105" t="n"/>
       <c r="D37" t="inlineStr">
         <is>
           <t>Da li postoji kriterijum za klasifikaciju osetljivih podataka?</t>
@@ -2126,10 +1355,9 @@
           <t>Opšta bolnica Požarevac</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" s="35" t="n">
         <v>212</v>
       </c>
-      <c r="C38" s="106" t="n"/>
       <c r="D38" t="inlineStr">
         <is>
           <t>Da li znate gde se čuvaju osetljivi podaci?</t>
@@ -2145,10 +1373,9 @@
           <t>Dom zdravlja Kragujevac</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" s="36" t="n">
         <v>255</v>
       </c>
-      <c r="C39" s="107" t="n"/>
       <c r="D39" t="inlineStr">
         <is>
           <t>Da li znate ko sve ima pristup poverljivim podacima?</t>
